--- a/agent/服务指南.xlsx
+++ b/agent/服务指南.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t/>
   </si>
@@ -57,7 +57,7 @@
     <t>硕士学位,授课类硕士,研究型硕士</t>
   </si>
   <si>
-    <t>法学,公共卫生,金融,会计,市场营销,商业管理,商业分析/数据分析</t>
+    <t>法学,公共卫生,金融,会计,市场营销,商业管理,数据科学</t>
   </si>
   <si>
     <t>【US】申请该专业可能需要成绩认证</t>
@@ -93,7 +93,7 @@
     <t>【UK】申请该专业需准备writing sample</t>
   </si>
   <si>
-    <t>金融,会计,市场营销,商业管理,商业分析/数据分析</t>
+    <t>金融,会计,市场营销,商业管理,数据科学</t>
   </si>
   <si>
     <t>【UK】需确认申请的项目是否要求带雅思申请</t>
@@ -315,7 +315,7 @@
     <t>【NZ】常规等换得full offer就可以先办理签证，等原则性批复收到后再缴纳学费以减少风险</t>
   </si>
   <si>
-    <t>商业管理,商业分析/数据分析</t>
+    <t>商业管理,数据科学</t>
   </si>
   <si>
     <t>【NZ】申请该专业可能会要求GMAT</t>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>本科转学分课程,学士学位,副学士学位,博士学位,硕士学位,授课类硕士,研究型硕士</t>
+  </si>
+  <si>
+    <t>设计,建筑学,艺术,表演艺术</t>
   </si>
   <si>
     <t>【US】建筑、设计、摄影、导演等专业需要作品集。</t>
@@ -2307,9 +2310,11 @@
       <c r="D80" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E80" s="6" t="s"/>
+      <c r="E80" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="F80" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2323,13 +2328,13 @@
         <v>8</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2343,13 +2348,13 @@
         <v>8</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2367,7 +2372,7 @@
       </c>
       <c r="E83" s="6" t="s"/>
       <c r="F83" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2610,9 +2615,6 @@
       <c r="E112" s="6" t="s"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F112">
-    <sortState ref="A2:F112"/>
-  </autoFilter>
   <dataValidations>
     <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="B2:B112">
       <formula1>"材料准备,申请时间规划,"</formula1>
@@ -2623,22 +2625,64 @@
     <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="D2:D112">
       <formula1>"小学,初中,高中,高中预科,学前,证书课程,语言,大学预科,大专文凭,研究生文凭,硕士预科,本科文凭,本科转学分课程,研究生预科,学士学位,副学士学位,博士学位,硕士学位,授课类硕士,研究型硕士,"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E2:E17">
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E2:E4">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E5">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,数据科学,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E6:E9">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E10">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,数据科学,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E11:E17">
       <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E18">
       <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,建筑学,"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E19:E45">
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E19:E29">
       <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E46:E56">
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E30">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,数据科学,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E31:E45">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E46:E54">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,医学,设计,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E55">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,数据科学,医学,设计,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E56">
       <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,医学,设计,"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E57">
       <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E58:E112">
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E58:E73">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,医学,设计,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E74">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,数据科学,医学,设计,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E75">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,医学,设计,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E76">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,数据科学,医学,设计,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E77:E79">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,医学,设计,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E80">
+      <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,医学,设计,建筑学,艺术,表演艺术,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" allowBlank="true" showDropDown="false" showInputMessage="true" showErrorMessage="true" prompt="" sqref="E81:E112">
       <formula1>"法学,公共卫生,语言与文学,金融,会计,市场营销,商业管理,商业分析/数据分析,医学,设计,"</formula1>
     </dataValidation>
   </dataValidations>
